--- a/Model_decriptions.xlsx
+++ b/Model_decriptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds728\OneDrive - MRC Cancer Unit at University of Cambridge\Papers\Lymph_paper_2_comp\Submission_PNAS\Models\Models_for_submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds728\OneDrive - MRC Cancer Unit at University of Cambridge\Models\Lymph_project\Uploaded_Github\Uploaded_26th_Jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Full model under MEF Homozygous Kras knockdown (compared to HET) with DIDs and EIPA applied</t>
+  </si>
+  <si>
+    <t>Shorthouse_etal_ionchannels_base.json</t>
+  </si>
+  <si>
+    <t>Model of core osmotic network in resting state</t>
   </si>
 </sst>
 </file>
@@ -164,12 +170,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C9" sqref="C9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,30 +491,30 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -519,11 +528,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -537,11 +546,11 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -555,11 +564,11 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -573,11 +582,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -591,11 +600,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -609,11 +618,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -627,11 +636,11 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -645,11 +654,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -661,31 +670,52 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C9:L9"/>
+  <mergeCells count="24">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C12:L12"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>